--- a/3 - Cronograma.xlsx
+++ b/3 - Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luiz David Santin\aulasUTFPR\6 periodo\Tecnologia em Desenvolvimento de Sistemas\Trabalho final\Hotelaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05898F52-D362-40E0-9A1B-E6D81B9CC385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8545310-4888-4DD8-AACA-5AE80A6BC232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráf. de Gantt simples - VAZIO" sheetId="1" r:id="rId1"/>
@@ -1336,30 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,6 +1374,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,8 +1795,8 @@
   <dimension ref="B1:CN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="10" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2020,89 +2020,89 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88" t="s">
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="88"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="88" t="s">
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="88"/>
-      <c r="AY6" s="88"/>
-      <c r="AZ6" s="88"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="88"/>
-      <c r="BC6" s="88"/>
-      <c r="BD6" s="88"/>
-      <c r="BE6" s="88"/>
-      <c r="BF6" s="88"/>
-      <c r="BG6" s="88"/>
-      <c r="BH6" s="88"/>
-      <c r="BI6" s="88"/>
-      <c r="BJ6" s="88"/>
-      <c r="BK6" s="88"/>
-      <c r="BL6" s="88"/>
-      <c r="BM6" s="88"/>
-      <c r="BN6" s="88"/>
-      <c r="BO6" s="88"/>
-      <c r="BP6" s="88"/>
-      <c r="BQ6" s="88"/>
-      <c r="BR6" s="88" t="s">
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="102"/>
+      <c r="AY6" s="102"/>
+      <c r="AZ6" s="102"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="102"/>
+      <c r="BC6" s="102"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="102"/>
+      <c r="BG6" s="102"/>
+      <c r="BH6" s="102"/>
+      <c r="BI6" s="102"/>
+      <c r="BJ6" s="102"/>
+      <c r="BK6" s="102"/>
+      <c r="BL6" s="102"/>
+      <c r="BM6" s="102"/>
+      <c r="BN6" s="102"/>
+      <c r="BO6" s="102"/>
+      <c r="BP6" s="102"/>
+      <c r="BQ6" s="102"/>
+      <c r="BR6" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BS6" s="88"/>
-      <c r="BT6" s="88"/>
-      <c r="BU6" s="88"/>
-      <c r="BV6" s="88"/>
-      <c r="BW6" s="88"/>
-      <c r="BX6" s="88"/>
-      <c r="BY6" s="88"/>
-      <c r="BZ6" s="88"/>
-      <c r="CA6" s="88"/>
-      <c r="CB6" s="88"/>
-      <c r="CC6" s="88"/>
-      <c r="CD6" s="88"/>
+      <c r="BS6" s="102"/>
+      <c r="BT6" s="102"/>
+      <c r="BU6" s="102"/>
+      <c r="BV6" s="102"/>
+      <c r="BW6" s="102"/>
+      <c r="BX6" s="102"/>
+      <c r="BY6" s="102"/>
+      <c r="BZ6" s="102"/>
+      <c r="CA6" s="102"/>
+      <c r="CB6" s="102"/>
+      <c r="CC6" s="102"/>
+      <c r="CD6" s="102"/>
     </row>
     <row r="7" spans="2:92" x14ac:dyDescent="0.3">
       <c r="H7" s="15">
@@ -2332,101 +2332,101 @@
       </c>
     </row>
     <row r="8" spans="2:92" x14ac:dyDescent="0.3">
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="90" t="s">
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="91" t="s">
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="92" t="s">
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="93" t="s">
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="106"/>
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="106"/>
+      <c r="BK8" s="106"/>
+      <c r="BL8" s="106"/>
+      <c r="BM8" s="106"/>
+      <c r="BN8" s="106"/>
+      <c r="BO8" s="106"/>
+      <c r="BP8" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="93"/>
-      <c r="BZ8" s="93"/>
-      <c r="CA8" s="93"/>
-      <c r="CB8" s="93"/>
-      <c r="CC8" s="93"/>
-      <c r="CD8" s="93"/>
-      <c r="CE8" s="94"/>
-      <c r="CF8" s="94"/>
-      <c r="CG8" s="94"/>
-      <c r="CH8" s="94"/>
-      <c r="CI8" s="94"/>
-      <c r="CJ8" s="94"/>
-      <c r="CK8" s="94"/>
-      <c r="CL8" s="94"/>
-      <c r="CM8" s="94"/>
-      <c r="CN8" s="94"/>
+      <c r="BQ8" s="107"/>
+      <c r="BR8" s="107"/>
+      <c r="BS8" s="107"/>
+      <c r="BT8" s="107"/>
+      <c r="BU8" s="107"/>
+      <c r="BV8" s="107"/>
+      <c r="BW8" s="107"/>
+      <c r="BX8" s="107"/>
+      <c r="BY8" s="107"/>
+      <c r="BZ8" s="107"/>
+      <c r="CA8" s="107"/>
+      <c r="CB8" s="107"/>
+      <c r="CC8" s="107"/>
+      <c r="CD8" s="107"/>
+      <c r="CE8" s="86"/>
+      <c r="CF8" s="86"/>
+      <c r="CG8" s="86"/>
+      <c r="CH8" s="86"/>
+      <c r="CI8" s="86"/>
+      <c r="CJ8" s="86"/>
+      <c r="CK8" s="86"/>
+      <c r="CL8" s="86"/>
+      <c r="CM8" s="86"/>
+      <c r="CN8" s="86"/>
     </row>
     <row r="9" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
@@ -2447,121 +2447,121 @@
       <c r="G9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96" t="s">
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97" t="s">
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="98" t="s">
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="99" t="s">
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100" t="s">
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="101" t="s">
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="102" t="s">
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="103" t="s">
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="103"/>
-      <c r="AZ9" s="103"/>
-      <c r="BA9" s="104" t="s">
+      <c r="AW9" s="95"/>
+      <c r="AX9" s="95"/>
+      <c r="AY9" s="95"/>
+      <c r="AZ9" s="95"/>
+      <c r="BA9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="104"/>
-      <c r="BF9" s="105" t="s">
+      <c r="BB9" s="96"/>
+      <c r="BC9" s="96"/>
+      <c r="BD9" s="96"/>
+      <c r="BE9" s="96"/>
+      <c r="BF9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="BG9" s="105"/>
-      <c r="BH9" s="105"/>
-      <c r="BI9" s="105"/>
-      <c r="BJ9" s="105"/>
-      <c r="BK9" s="106" t="s">
+      <c r="BG9" s="97"/>
+      <c r="BH9" s="97"/>
+      <c r="BI9" s="97"/>
+      <c r="BJ9" s="97"/>
+      <c r="BK9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="BL9" s="106"/>
-      <c r="BM9" s="106"/>
-      <c r="BN9" s="106"/>
-      <c r="BO9" s="106"/>
-      <c r="BP9" s="107" t="s">
+      <c r="BL9" s="98"/>
+      <c r="BM9" s="98"/>
+      <c r="BN9" s="98"/>
+      <c r="BO9" s="98"/>
+      <c r="BP9" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="107"/>
-      <c r="BR9" s="107"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="107"/>
-      <c r="BU9" s="86" t="s">
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87" t="s">
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="CA9" s="87"/>
-      <c r="CB9" s="87"/>
-      <c r="CC9" s="87"/>
-      <c r="CD9" s="87"/>
-      <c r="CE9" s="94"/>
-      <c r="CF9" s="94"/>
-      <c r="CG9" s="94"/>
-      <c r="CH9" s="94"/>
-      <c r="CI9" s="94"/>
-      <c r="CJ9" s="94"/>
-      <c r="CK9" s="94"/>
-      <c r="CL9" s="94"/>
-      <c r="CM9" s="94"/>
-      <c r="CN9" s="94"/>
+      <c r="CA9" s="101"/>
+      <c r="CB9" s="101"/>
+      <c r="CC9" s="101"/>
+      <c r="CD9" s="101"/>
+      <c r="CE9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="86"/>
+      <c r="CH9" s="86"/>
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CM9" s="86"/>
+      <c r="CN9" s="86"/>
     </row>
     <row r="10" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
@@ -3584,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="62"/>
@@ -4707,6 +4707,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="H6:Z6"/>
+    <mergeCell ref="AA6:AU6"/>
+    <mergeCell ref="AV6:BQ6"/>
+    <mergeCell ref="BR6:CD6"/>
+    <mergeCell ref="H8:V8"/>
+    <mergeCell ref="W8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="BA8:BO8"/>
+    <mergeCell ref="BP8:CD8"/>
     <mergeCell ref="CE9:CI9"/>
     <mergeCell ref="CJ9:CN9"/>
     <mergeCell ref="CE8:CN8"/>
@@ -4723,17 +4734,6 @@
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="H6:Z6"/>
-    <mergeCell ref="AA6:AU6"/>
-    <mergeCell ref="AV6:BQ6"/>
-    <mergeCell ref="BR6:CD6"/>
-    <mergeCell ref="H8:V8"/>
-    <mergeCell ref="W8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="BA8:BO8"/>
-    <mergeCell ref="BP8:CD8"/>
   </mergeCells>
   <conditionalFormatting sqref="G24:G30 G11:G21">
     <cfRule type="dataBar" priority="5">
